--- a/Datos/Datos_Medicion_IBs.xlsx
+++ b/Datos/Datos_Medicion_IBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\Tarea_DL_DBT845\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Documents\Tarea_DL_DBT845\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57CE74F-BB3E-4458-ADEA-9334369A8056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB1B83D-47DB-4461-AABE-FF5682258023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18600,8 +18600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D281F10-BBD2-4585-99DD-0D6DDDF01577}">
   <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="E230" sqref="E230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
